--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 4 (36, 30, 39, 35, 43)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(36, 30, 39, 35, 43)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999687444713704</v>
+        <v>0.9999687317203518</v>
       </c>
       <c r="E2">
-        <v>0.9999687444713704</v>
+        <v>0.9999687317203518</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999986046609423</v>
+        <v>0.9999985578563054</v>
       </c>
       <c r="E3">
-        <v>0.9999986046609423</v>
+        <v>0.9999985578563054</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.3417971827219634</v>
+        <v>0.3441103626345411</v>
       </c>
       <c r="E4">
-        <v>0.3417971827219634</v>
+        <v>0.3441103626345411</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999999999787</v>
+        <v>0.9999999999999747</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999787</v>
+        <v>0.9999999999999747</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9912004327758148</v>
+        <v>0.9911316181822624</v>
       </c>
       <c r="E6">
-        <v>0.9912004327758148</v>
+        <v>0.9911316181822624</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9977809423548414</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.002219057645158617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9983674046649887</v>
+        <v>1.07814448830965E-07</v>
       </c>
       <c r="E8">
-        <v>0.001632595335011255</v>
+        <v>0.9999998921855512</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9980748009473885</v>
+        <v>0.06323476730530066</v>
       </c>
       <c r="E9">
-        <v>0.001925199052611459</v>
+        <v>0.9367652326946994</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9980088642239366</v>
+        <v>1.020623221607705E-08</v>
       </c>
       <c r="E10">
-        <v>0.001991135776063357</v>
+        <v>0.9999999897937678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9983664549042955</v>
+        <v>0.9999993037422776</v>
       </c>
       <c r="E11">
-        <v>0.001633545095704458</v>
+        <v>6.962577223657007E-07</v>
       </c>
       <c r="F11">
-        <v>6.050056457519531</v>
+        <v>9.747716903686523</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9999986534465068</v>
+        <v>0.9999986557477916</v>
       </c>
       <c r="E12">
-        <v>0.9999986534465068</v>
+        <v>0.9999986557477916</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999977686110775</v>
+        <v>0.9999976897315318</v>
       </c>
       <c r="E13">
-        <v>0.9999977686110775</v>
+        <v>0.9999976897315318</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.02670004043653885</v>
+        <v>0.02720766984815618</v>
       </c>
       <c r="E14">
-        <v>0.02670004043653885</v>
+        <v>0.02720766984815618</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9985346095516483</v>
+        <v>0.9985188257395833</v>
       </c>
       <c r="E16">
-        <v>0.9985346095516483</v>
+        <v>0.9985188257395833</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9991466149880917</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.0008533850119083475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9993825682325934</v>
+        <v>1.075390071267258E-09</v>
       </c>
       <c r="E18">
-        <v>0.0006174317674065843</v>
+        <v>0.9999999989246099</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9992826759961905</v>
+        <v>0.04011669241917602</v>
       </c>
       <c r="E19">
-        <v>0.0007173240038095274</v>
+        <v>0.959883307580824</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9992584231803799</v>
+        <v>2.01179074517676E-08</v>
       </c>
       <c r="E20">
-        <v>0.0007415768196200601</v>
+        <v>0.9999999798820925</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9993631620743728</v>
+        <v>0.9999999818319812</v>
       </c>
       <c r="E21">
-        <v>0.0006368379256271872</v>
+        <v>1.816801875609286E-08</v>
       </c>
       <c r="F21">
-        <v>8.446332931518555</v>
+        <v>12.58650588989258</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
